--- a/Auswertung/features/results/results_summary.xlsx
+++ b/Auswertung/features/results/results_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -129,13 +129,13 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,32 +457,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -550,19 +550,19 @@
       <c r="I5" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>F5-B5</f>
         <v>0.11199999999999999</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>G5-C5</f>
         <v>0.123</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>H5-D5</f>
         <v>0.129</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>I5-E5</f>
         <v>0.11199999999999999</v>
       </c>
@@ -572,44 +572,44 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.59299999999999997</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>0.60499999999999998</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="E6" s="1">
-        <v>0.59299999999999997</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.68600000000000005</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>0.68500000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>0.7</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="J6" s="5">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="J6" s="4">
         <f t="shared" ref="J6:J11" si="0">F6-B6</f>
-        <v>9.3000000000000083E-2</v>
-      </c>
-      <c r="K6" s="5">
-        <f>G6-C6</f>
-        <v>0.1150000000000001</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" ref="L6:L11" si="1">H6-D6</f>
-        <v>9.4999999999999973E-2</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ref="M6:M11" si="2">I6-E6</f>
-        <v>9.3000000000000083E-2</v>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:K11" si="1">G6-C6</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" ref="L6:L11" si="2">H6-D6</f>
+        <v>3.1000000000000028E-2</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6:M11" si="3">I6-E6</f>
+        <v>-1.2000000000000011E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -645,15 +645,15 @@
         <v>5.1000000000000045E-2</v>
       </c>
       <c r="K7" s="1">
-        <f>G7-C7</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2000000000000046E-2</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2000000000000046E-2</v>
       </c>
     </row>
@@ -690,15 +690,15 @@
         <v>3.5000000000000031E-2</v>
       </c>
       <c r="K8" s="1">
-        <f>G8-C8</f>
+        <f t="shared" si="1"/>
         <v>4.0999999999999925E-2</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3999999999999928E-2</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5000000000000031E-2</v>
       </c>
     </row>
@@ -735,15 +735,15 @@
         <v>2.7000000000000024E-2</v>
       </c>
       <c r="K9" s="1">
-        <f>G9-C9</f>
+        <f t="shared" si="1"/>
         <v>3.5000000000000031E-2</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.500000000000004E-2</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7000000000000024E-2</v>
       </c>
     </row>
@@ -780,15 +780,15 @@
         <v>4.7999999999999932E-2</v>
       </c>
       <c r="K10" s="1">
-        <f>G10-C10</f>
-        <v>4.8999999999999932E-2</v>
-      </c>
-      <c r="L10" s="1">
         <f t="shared" si="1"/>
         <v>4.8999999999999932E-2</v>
       </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8999999999999932E-2</v>
+      </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7999999999999932E-2</v>
       </c>
     </row>
@@ -820,20 +820,20 @@
       <c r="I11" s="1">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>0.10899999999999999</v>
       </c>
-      <c r="K11" s="5">
-        <f>G11-C11</f>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
         <v>0.11599999999999999</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="1"/>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
         <v>0.10899999999999999</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="2"/>
+      <c r="M11" s="4">
+        <f t="shared" si="3"/>
         <v>0.10899999999999999</v>
       </c>
     </row>
@@ -846,7 +846,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -854,51 +854,51 @@
       </c>
       <c r="B13" s="1">
         <f>SUM(B5:B11) /7</f>
-        <v>0.68328571428571439</v>
+        <v>0.68185714285714283</v>
       </c>
       <c r="C13" s="1">
         <f>SUM(C5:C11) /7</f>
-        <v>0.67314285714285726</v>
+        <v>0.67242857142857149</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:I13" si="3">SUM(D5:D11) /7</f>
-        <v>0.68071428571428583</v>
+        <f t="shared" ref="D13:I13" si="4">SUM(D5:D11) /7</f>
+        <v>0.6775714285714286</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.68328571428571439</v>
+        <f t="shared" si="4"/>
+        <v>0.68585714285714283</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.75114285714285722</v>
+        <f t="shared" si="4"/>
+        <v>0.73871428571428577</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.74871428571428567</v>
+        <f t="shared" si="4"/>
+        <v>0.73471428571428565</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.75542857142857145</v>
+        <f t="shared" si="4"/>
+        <v>0.74314285714285711</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="3"/>
-        <v>0.75128571428571433</v>
-      </c>
-      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>0.73885714285714299</v>
+      </c>
+      <c r="J13" s="3">
         <f>AVERAGE(J5:J11)</f>
-        <v>6.7857142857142866E-2</v>
-      </c>
-      <c r="K13" s="4">
+        <v>5.6857142857142863E-2</v>
+      </c>
+      <c r="K13" s="3">
         <f>AVERAGE(K5:K11)</f>
-        <v>7.5571428571428581E-2</v>
-      </c>
-      <c r="L13" s="4">
+        <v>6.2285714285714278E-2</v>
+      </c>
+      <c r="L13" s="3">
         <f>AVERAGE(L5:L11)</f>
-        <v>7.4714285714285705E-2</v>
-      </c>
-      <c r="M13" s="4">
+        <v>6.5571428571428572E-2</v>
+      </c>
+      <c r="M13" s="3">
         <f>AVERAGE(M5:M11)</f>
-        <v>6.8000000000000019E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
